--- a/Documents/Historial de abonos y cambios Sistema Joyeria Violeta.xlsx
+++ b/Documents/Historial de abonos y cambios Sistema Joyeria Violeta.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben.soto\Documents\D-UNIDAD\RUITZA\JoyeriaVioleta\Documentos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9242F1-89C0-4E2D-BA03-6B39A621E2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A72D8DC-E651-4DE9-BC1A-2908B127CB19}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Concepto</t>
   </si>
@@ -72,16 +66,28 @@
   </si>
   <si>
     <t>Verificaciones de inventario, autorizaciones de salidas de inventario, reporte de movimientos de dinero electrónico, pantalla de permisos al menú para usuarios y roles, programa para realizar carga inicial de productos e inventarios por Excel</t>
+  </si>
+  <si>
+    <t>Soporte en conexiones, Revisiones de redondeo, Verificación de inventario por selección, Separar taller y agregar ingreso real en Corte de Caja</t>
+  </si>
+  <si>
+    <t>Reporte de ventas, restriccion para que pida autorización al crear consignación a nombre de martin, instalación y configuración de impresora</t>
+  </si>
+  <si>
+    <t>Agregar el descuento pero en pesos en la pantalla de ventas, solucionar detalle de los decimales en los pagos, Crear sección de devolución de inventario con autorizaciones de mostrador como de Martín, Permiso y cambio de precio de los productos en nota de venta</t>
+  </si>
+  <si>
+    <t>Agregar margen del 30% del costo en los descuentos, Al agregar descuento por precio que salga alerta de si está seguro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +96,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -142,7 +156,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -157,9 +171,13 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -218,7 +236,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -270,7 +288,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -484,28 +502,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EED20D6-3CE0-4F86-8851-FE5A41D4CB7A}">
-  <dimension ref="A1:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="66.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="66.625" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -516,7 +534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -525,7 +543,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="42.75">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
         <v>3</v>
@@ -534,7 +552,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="57">
       <c r="A4" s="3"/>
       <c r="B4" s="5" t="s">
         <v>11</v>
@@ -543,82 +561,84 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="28.5">
       <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.5">
       <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="57">
       <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.5">
       <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="7">
-        <f>SUM(C2:C9)</f>
-        <v>55000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="C12" s="7">
+        <f>SUM(C2:C11)</f>
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="9">
         <v>45109</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C14" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="4">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>45278</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="4">
-        <v>9800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>45347</v>
-      </c>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
@@ -626,42 +646,87 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="9">
+        <v>45278</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="9">
+        <v>45347</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="9">
+        <v>45383</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="9">
+        <v>45384</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" s="14" customFormat="1">
+      <c r="A22" s="15"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="8">
-        <f>SUM(C11:C18)</f>
-        <v>29800</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10" t="s">
+      <c r="C23" s="8">
+        <f>SUM(C13:C22)</f>
+        <v>39800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="11">
-        <f>C10-C19</f>
-        <v>25200</v>
+      <c r="C24" s="11">
+        <f>C12-C23</f>
+        <v>22200</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/Historial de abonos y cambios Sistema Joyeria Violeta.xlsx
+++ b/Documents/Historial de abonos y cambios Sistema Joyeria Violeta.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Concepto</t>
   </si>
@@ -502,7 +502,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -513,7 +513,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -691,9 +691,15 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
+      <c r="A20" s="9">
+        <v>45419</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="4">
+        <v>5000</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="9"/>
@@ -712,7 +718,7 @@
       </c>
       <c r="C23" s="8">
         <f>SUM(C13:C22)</f>
-        <v>39800</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -722,7 +728,7 @@
       </c>
       <c r="C24" s="11">
         <f>C12-C23</f>
-        <v>22200</v>
+        <v>17200</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Historial de abonos y cambios Sistema Joyeria Violeta.xlsx
+++ b/Documents/Historial de abonos y cambios Sistema Joyeria Violeta.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\VioletaSystem\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39C422A-5AE8-4454-A3BE-A19971B892BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Concepto</t>
   </si>
@@ -77,13 +81,28 @@
     <t>Agregar el descuento pero en pesos en la pantalla de ventas, solucionar detalle de los decimales en los pagos, Crear sección de devolución de inventario con autorizaciones de mostrador como de Martín, Permiso y cambio de precio de los productos en nota de venta</t>
   </si>
   <si>
-    <t>Agregar margen del 30% del costo en los descuentos, Al agregar descuento por precio que salga alerta de si está seguro</t>
+    <t>Agregar margen del 30% del costo en los descuentos, Al agregar descuento por precio que salga alerta de si está seguro, cerrar ventana de Cliente cuando se agrega o se actualiza, agregar atajo de inventario de producto desde la consulta, obligatoria la descripción al agregar dinero electrónico de forma manual, en la cancelación de pago, que sea obligatorio seleccionar una de las dos ociones, dinero electronico o el egreso, Se agrega control de quien agrega movimientos en el dinero electrónico de los clientes, Se deshabilita el check en la pantalla de clientes, deshabilitar check de activos en clientes, usuarios y roles</t>
+  </si>
+  <si>
+    <t>Manejo de estatus para los sobres de taller, que aparezca el status de los sobres en la consulta de ventas, agregar botones de exportar a excel en el inventario físico para poder imprimir</t>
+  </si>
+  <si>
+    <t>Se agrega pantalla de Ingresos manuales, Se modifican los Cortes de caja para considerar los ingresos Manuales, Se optimiza el Corte de caja para no manejar transacciones</t>
+  </si>
+  <si>
+    <t>Agregar lista de Egresos, Ingresos y pagos cancelados en la pantalla de Corte de caja, Cancelación de los ingresos con autorización y revisión de impresión de ticket para corte de caja, Reporte de pagos cancelados, Cancelación de venta con pagos cortados</t>
+  </si>
+  <si>
+    <t>Abono Martin</t>
+  </si>
+  <si>
+    <t>Instalación y configuración del Sistema para la merceria Sarita</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -156,7 +175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -171,10 +190,17 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -502,18 +528,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -534,133 +560,139 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" hidden="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="12">
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="42.75">
+    <row r="3" spans="1:3" ht="42.75" hidden="1">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="12">
         <v>21000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="57">
+    <row r="4" spans="1:3" ht="57" hidden="1">
       <c r="A4" s="3"/>
       <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="12">
         <v>4000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.5">
+    <row r="5" spans="1:3" ht="28.5" hidden="1">
       <c r="A5" s="3"/>
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="12">
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.5">
+    <row r="6" spans="1:3" ht="28.5" hidden="1">
       <c r="A6" s="3"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="12">
         <v>2500</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="57">
+    <row r="7" spans="1:3" ht="57" hidden="1">
       <c r="A7" s="3"/>
       <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="12">
         <v>2500</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.5">
+    <row r="8" spans="1:3" ht="128.25">
       <c r="A8" s="3"/>
       <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="12">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="42.75">
       <c r="A9" s="3"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="42.75">
       <c r="A10" s="3"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="57">
       <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="12">
+        <v>2500</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="16" customFormat="1">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="7">
-        <f>SUM(C2:C11)</f>
-        <v>62000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" t="s">
+      <c r="C14" s="7">
+        <f>SUM(C2:C13)</f>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="9">
-        <v>45109</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="4">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="4">
-        <v>5000</v>
-      </c>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="9">
-        <v>45278</v>
+        <v>45109</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="4">
-        <v>9800</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="9">
-        <v>45347</v>
-      </c>
+      <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
@@ -670,18 +702,18 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="9">
-        <v>45383</v>
+        <v>45278</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="4">
-        <v>5000</v>
+        <v>9800</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="9">
-        <v>45384</v>
+        <v>45347</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>7</v>
@@ -692,7 +724,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="9">
-        <v>45419</v>
+        <v>45383</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>7</v>
@@ -702,37 +734,81 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" s="14" customFormat="1">
-      <c r="A22" s="15"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
+      <c r="A21" s="9">
+        <v>45384</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="9">
+        <v>45419</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="4">
+        <v>5000</v>
+      </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="9">
+        <v>45449</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="9">
+        <v>45465</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="8">
-        <f>SUM(C13:C22)</f>
-        <v>44800</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10" t="s">
+      <c r="C27" s="8">
+        <f>SUM(C15:C26)</f>
+        <v>56800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="11">
-        <f>C12-C23</f>
-        <v>17200</v>
+      <c r="C28" s="11">
+        <f>C14-C27</f>
+        <v>18200</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <pageSetup paperSize="2833" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/Historial de abonos y cambios Sistema Joyeria Violeta.xlsx
+++ b/Documents/Historial de abonos y cambios Sistema Joyeria Violeta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\VioletaSystem\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39C422A-5AE8-4454-A3BE-A19971B892BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EA28C8-169A-46CF-B922-E87F94E5EDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Concepto</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>Instalación y configuración del Sistema para la merceria Sarita</t>
+  </si>
+  <si>
+    <t>Abono de Amelia</t>
+  </si>
+  <si>
+    <t>Poner NOTA PAGADA cuando pagan una nota, Agregar el cambio en el ticket de Pagos, Agregar sonidos a la verificación de inventario físico, Agregar sección de cambio de contraseña y de código de autorización</t>
   </si>
 </sst>
 </file>
@@ -536,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -614,7 +620,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="128.25">
+    <row r="8" spans="1:3" ht="128.25" hidden="1">
       <c r="A8" s="3"/>
       <c r="B8" s="5" t="s">
         <v>15</v>
@@ -659,73 +665,59 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="16" customFormat="1">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
+    <row r="13" spans="1:3" ht="42.75">
+      <c r="A13" s="3"/>
+      <c r="B13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="12">
+        <v>1800</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:3" s="16" customFormat="1">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="7">
-        <f>SUM(C2:C13)</f>
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" t="s">
+      <c r="C17" s="7">
+        <f>SUM(C2:C16)</f>
+        <v>76800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="9">
-        <v>45109</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="4">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="4">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="9">
-        <v>45278</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="4">
-        <v>9800</v>
-      </c>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="9">
-        <v>45347</v>
+        <v>45109</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="4">
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="9">
-        <v>45383</v>
-      </c>
+      <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>7</v>
       </c>
@@ -735,18 +727,18 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="9">
-        <v>45384</v>
+        <v>45278</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="4">
-        <v>5000</v>
+        <v>9800</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="9">
-        <v>45419</v>
+        <v>45347</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>7</v>
@@ -757,54 +749,101 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="9">
-        <v>45449</v>
+        <v>45383</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="4">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="9">
+        <v>45384</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="9">
+        <v>45419</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="9">
+        <v>45449</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="9">
         <v>45465</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C27" s="4">
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="9"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="9"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="8">
-        <f>SUM(C15:C26)</f>
-        <v>56800</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10" t="s">
+      <c r="C32" s="8">
+        <f>SUM(C18:C31)</f>
+        <v>61800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="11">
-        <f>C14-C27</f>
-        <v>18200</v>
+      <c r="C33" s="11">
+        <f>C17-C32</f>
+        <v>15000</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Historial de abonos y cambios Sistema Joyeria Violeta.xlsx
+++ b/Documents/Historial de abonos y cambios Sistema Joyeria Violeta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\VioletaSystem\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EA28C8-169A-46CF-B922-E87F94E5EDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4A31F9-98F4-4461-9F75-C342CC264718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Concepto</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Poner NOTA PAGADA cuando pagan una nota, Agregar el cambio en el ticket de Pagos, Agregar sonidos a la verificación de inventario físico, Agregar sección de cambio de contraseña y de código de autorización</t>
+  </si>
+  <si>
+    <t>Impresión de código de barra de producto, Configuración de código de barras en impresora de oficina, Modificaciones de impresión de ticket de notas, Corte de Caja, Egresos, Ingresos y pagos</t>
   </si>
 </sst>
 </file>
@@ -542,11 +545,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
@@ -674,71 +675,81 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="42.75">
       <c r="A14" s="3"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="12"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="12"/>
-    </row>
-    <row r="16" spans="1:3" s="16" customFormat="1">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
+      <c r="B14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="12">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="16" customFormat="1">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="7">
+        <f>SUM(C2:C15)</f>
+        <v>79400</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="7">
-        <f>SUM(C2:C16)</f>
-        <v>76800</v>
-      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="1"/>
+      <c r="A18" s="9">
+        <v>45109</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4">
+        <v>10000</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="9">
-        <v>45109</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" s="4">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="3"/>
+      <c r="A20" s="9">
+        <v>45278</v>
+      </c>
       <c r="B20" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="4">
-        <v>5000</v>
+        <v>9800</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="9">
-        <v>45278</v>
+        <v>45347</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="4">
-        <v>9800</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="9">
-        <v>45347</v>
+        <v>45383</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>7</v>
@@ -749,7 +760,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="9">
-        <v>45383</v>
+        <v>45384</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>7</v>
@@ -760,7 +771,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="9">
-        <v>45384</v>
+        <v>45419</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>7</v>
@@ -771,79 +782,58 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="9">
-        <v>45419</v>
+        <v>45449</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="4">
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="9">
-        <v>45449</v>
+        <v>45465</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C26" s="4">
-        <v>10000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="9">
-        <v>45465</v>
-      </c>
+      <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C27" s="4">
-        <v>2000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="9"/>
-      <c r="B28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="4">
-        <v>5000</v>
-      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="8">
+        <f>SUM(C17:C28)</f>
+        <v>61800</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="8">
-        <f>SUM(C18:C31)</f>
-        <v>61800</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10" t="s">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="11">
-        <f>C17-C32</f>
-        <v>15000</v>
+      <c r="C30" s="11">
+        <f>C16-C29</f>
+        <v>17600</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Historial de abonos y cambios Sistema Joyeria Violeta.xlsx
+++ b/Documents/Historial de abonos y cambios Sistema Joyeria Violeta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\VioletaSystem\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4A31F9-98F4-4461-9F75-C342CC264718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071298EA-5B69-408C-8FC2-9E525E7A00BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Concepto</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Impresión de código de barra de producto, Configuración de código de barras en impresora de oficina, Modificaciones de impresión de ticket de notas, Corte de Caja, Egresos, Ingresos y pagos</t>
+  </si>
+  <si>
+    <t>Agregar el nombre del vendedor en el Ticket del pago, Soporte para migrar de servidor a Sarita y sacar Pagos de los cortes del 29 de junio, Configuracion de impresora en merceria</t>
   </si>
 </sst>
 </file>
@@ -545,9 +548,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
@@ -630,7 +635,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="42.75">
+    <row r="9" spans="1:3" ht="42.75" hidden="1">
       <c r="A9" s="3"/>
       <c r="B9" s="5" t="s">
         <v>16</v>
@@ -639,7 +644,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="42.75">
+    <row r="10" spans="1:3" ht="42.75" hidden="1">
       <c r="A10" s="3"/>
       <c r="B10" s="5" t="s">
         <v>17</v>
@@ -648,7 +653,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="57">
+    <row r="11" spans="1:3" ht="57" hidden="1">
       <c r="A11" s="3"/>
       <c r="B11" s="5" t="s">
         <v>18</v>
@@ -657,7 +662,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" hidden="1">
       <c r="A12" s="3"/>
       <c r="B12" s="5" t="s">
         <v>20</v>
@@ -684,156 +689,211 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="16" customFormat="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
+    <row r="15" spans="1:3" ht="42.75">
+      <c r="A15" s="3"/>
+      <c r="B15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="12">
+        <v>1500</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="7">
-        <f>SUM(C2:C15)</f>
-        <v>79400</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="12"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="1"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="12"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="9">
-        <v>45109</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="4">
-        <v>10000</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="12"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="4">
-        <v>5000</v>
-      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="12"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="9">
-        <v>45278</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="4">
-        <v>9800</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="9">
-        <v>45347</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="4">
-        <v>5000</v>
-      </c>
+      <c r="A20" s="3"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="12"/>
+    </row>
+    <row r="21" spans="1:3" s="16" customFormat="1">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="9">
-        <v>45383</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="4">
-        <v>5000</v>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="7">
+        <f>SUM(C2:C21)</f>
+        <v>80900</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="9">
-        <v>45384</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="4">
-        <v>5000</v>
-      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="9">
-        <v>45419</v>
+        <v>45109</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" s="4">
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="9">
-        <v>45449</v>
-      </c>
+      <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="4">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="9">
-        <v>45465</v>
+        <v>45278</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C26" s="4">
-        <v>2000</v>
+        <v>9800</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="9"/>
+      <c r="A27" s="9">
+        <v>45347</v>
+      </c>
       <c r="B27" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C27" s="4">
         <v>5000</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
+      <c r="A28" s="9">
+        <v>45383</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="4">
+        <v>5000</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6" t="s">
+      <c r="A29" s="9">
+        <v>45384</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="9">
+        <v>45419</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="9">
+        <v>45449</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="9">
+        <v>45465</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="9"/>
+      <c r="B33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="9">
+        <v>45506</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="4">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="9"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="9"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="9"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="8">
-        <f>SUM(C17:C28)</f>
-        <v>61800</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10" t="s">
+      <c r="C38" s="8">
+        <f>SUM(C23:C37)</f>
+        <v>76800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="11">
-        <f>C16-C29</f>
-        <v>17600</v>
+      <c r="C39" s="11">
+        <f>C22-C38</f>
+        <v>4100</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Historial de abonos y cambios Sistema Joyeria Violeta.xlsx
+++ b/Documents/Historial de abonos y cambios Sistema Joyeria Violeta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\VioletaSystem\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071298EA-5B69-408C-8FC2-9E525E7A00BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237A22B5-9B34-42A9-8F4A-5269480C26D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Concepto</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Agregar el nombre del vendedor en el Ticket del pago, Soporte para migrar de servidor a Sarita y sacar Pagos de los cortes del 29 de junio, Configuracion de impresora en merceria</t>
+  </si>
+  <si>
+    <t>Reporte de pagos</t>
   </si>
 </sst>
 </file>
@@ -550,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -700,8 +703,12 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="12"/>
+      <c r="B16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="12">
+        <v>900</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3"/>
@@ -735,7 +742,7 @@
       </c>
       <c r="C22" s="7">
         <f>SUM(C2:C21)</f>
-        <v>80900</v>
+        <v>81800</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -893,7 +900,7 @@
       </c>
       <c r="C39" s="11">
         <f>C22-C38</f>
-        <v>4100</v>
+        <v>5000</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Historial de abonos y cambios Sistema Joyeria Violeta.xlsx
+++ b/Documents/Historial de abonos y cambios Sistema Joyeria Violeta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\VioletaSystem\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237A22B5-9B34-42A9-8F4A-5269480C26D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35B2722-525B-4D6E-9604-DA42CFE0E26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Concepto</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>Reporte de pagos</t>
+  </si>
+  <si>
+    <t>Permiso para poder ver los costos de los productos en el reporte de ventas, Agregar las cotizaciones en la sección de ventas y que no bajen inventario, quitar de merceria el imprimir el código de barras, quitar de merceria el imprimir el código de barras, Que pueda agregar más de una vez el mismo producto, Que la cotización pueda mezclarse como si fuera de taller tambien, Cambiar el pie de página, para que diga que la cotizacion puede cambiar</t>
+  </si>
+  <si>
+    <t>Permiso para poder ver los costos de los productos en el reporte de ventas, Agregar las cotizaciones en la sección de ventas y que no bajen inventario, quitar de merceria el imprimir el código de barras, Que pueda agregar más de una vez el mismo producto, Que la cotización pueda mezclarse como si fuera de taller tambien, Cambiar el pie de página, para que diga que la cotizacion puede cambiar</t>
   </si>
 </sst>
 </file>
@@ -190,7 +196,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -216,6 +222,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -551,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -710,60 +719,82 @@
         <v>900</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="85.5">
       <c r="A17" s="3"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="12"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="12"/>
+      <c r="B17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="12">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="16" customFormat="1">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="12"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="7">
+        <f>SUM(C2:C18)</f>
+        <v>84000</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="12"/>
-    </row>
-    <row r="21" spans="1:3" s="16" customFormat="1">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="9">
+        <v>45109</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="4">
+        <v>10000</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="7">
-        <f>SUM(C2:C21)</f>
-        <v>81800</v>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="4">
+        <v>5000</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="1"/>
+      <c r="A23" s="9">
+        <v>45278</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="4">
+        <v>9800</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="9">
-        <v>45109</v>
+        <v>45347</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" s="4">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="3"/>
+      <c r="A25" s="9">
+        <v>45383</v>
+      </c>
       <c r="B25" s="3" t="s">
         <v>7</v>
       </c>
@@ -773,18 +804,18 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="9">
-        <v>45278</v>
+        <v>45384</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="4">
-        <v>9800</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="9">
-        <v>45347</v>
+        <v>45419</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>7</v>
@@ -795,32 +826,30 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="9">
-        <v>45383</v>
+        <v>45449</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="4">
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="9">
-        <v>45384</v>
+        <v>45465</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C29" s="4">
-        <v>5000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="9">
-        <v>45419</v>
-      </c>
+      <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C30" s="4">
         <v>5000</v>
@@ -828,80 +857,63 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="9">
-        <v>45449</v>
+        <v>45506</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C31" s="4">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="9">
-        <v>45465</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="4">
-        <v>2000</v>
-      </c>
+      <c r="A32" s="9"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="9"/>
-      <c r="B33" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="4">
-        <v>5000</v>
-      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="9">
-        <v>45506</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="4">
-        <v>15000</v>
-      </c>
+      <c r="A34" s="9"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="9"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="4"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="8">
+        <f>SUM(C20:C34)</f>
+        <v>76800</v>
+      </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="9"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="8">
-        <f>SUM(C23:C37)</f>
-        <v>76800</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10" t="s">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="11">
-        <f>C22-C38</f>
-        <v>5000</v>
-      </c>
+      <c r="C36" s="11">
+        <f>C19-C35</f>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="85.5">
+      <c r="B52" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="17"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="17"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Historial de abonos y cambios Sistema Joyeria Violeta.xlsx
+++ b/Documents/Historial de abonos y cambios Sistema Joyeria Violeta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\VioletaSystem\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35B2722-525B-4D6E-9604-DA42CFE0E26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9A8F33-1DCE-441B-B718-CBDC78319D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Concepto</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Permiso para poder ver los costos de los productos en el reporte de ventas, Agregar las cotizaciones en la sección de ventas y que no bajen inventario, quitar de merceria el imprimir el código de barras, Que pueda agregar más de una vez el mismo producto, Que la cotización pueda mezclarse como si fuera de taller tambien, Cambiar el pie de página, para que diga que la cotizacion puede cambiar</t>
+  </si>
+  <si>
+    <t>Agregar fecha de entrega/recibido, Modificar el ticket de taller y la nota de taller para agregar la fecha de Entrega</t>
   </si>
 </sst>
 </file>
@@ -560,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A13" sqref="A13:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -683,7 +686,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="42.75">
+    <row r="13" spans="1:3" ht="42.75" hidden="1">
       <c r="A13" s="3"/>
       <c r="B13" s="5" t="s">
         <v>22</v>
@@ -692,7 +695,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="42.75">
+    <row r="14" spans="1:3" ht="42.75" hidden="1">
       <c r="A14" s="3"/>
       <c r="B14" s="5" t="s">
         <v>23</v>
@@ -701,7 +704,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="42.75">
+    <row r="15" spans="1:3" ht="42.75" hidden="1">
       <c r="A15" s="3"/>
       <c r="B15" s="5" t="s">
         <v>24</v>
@@ -728,72 +731,70 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="16" customFormat="1">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6" t="s">
+    <row r="18" spans="1:3" ht="28.5">
+      <c r="A18" s="3"/>
+      <c r="B18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="12">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="16" customFormat="1">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="7">
-        <f>SUM(C2:C18)</f>
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="B20" t="s">
+      <c r="C20" s="7">
+        <f>SUM(C2:C19)</f>
+        <v>84800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="9">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" hidden="1">
+      <c r="A22" s="9">
         <v>45109</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C22" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="4">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="9">
-        <v>45278</v>
-      </c>
+    <row r="23" spans="1:3" hidden="1">
+      <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="4">
-        <v>9800</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" hidden="1">
       <c r="A24" s="9">
-        <v>45347</v>
+        <v>45278</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="4">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" hidden="1">
       <c r="A25" s="9">
-        <v>45383</v>
+        <v>45347</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>7</v>
@@ -802,9 +803,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" hidden="1">
       <c r="A26" s="9">
-        <v>45384</v>
+        <v>45383</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>7</v>
@@ -813,9 +814,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" hidden="1">
       <c r="A27" s="9">
-        <v>45419</v>
+        <v>45384</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>7</v>
@@ -826,50 +827,56 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="9">
-        <v>45449</v>
+        <v>45419</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="4">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="9">
+        <v>45449</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="9">
         <v>45465</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C30" s="4">
         <v>2000</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="3" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" s="9"/>
+      <c r="B31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C31" s="4">
         <v>5000</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="9">
+    <row r="32" spans="1:3">
+      <c r="A32" s="9">
         <v>45506</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C32" s="4">
         <v>15000</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="9"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="9"/>
@@ -877,43 +884,41 @@
       <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="9"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="4"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="8">
+        <f>SUM(C21:C33)</f>
+        <v>76800</v>
+      </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="8">
-        <f>SUM(C20:C34)</f>
-        <v>76800</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10" t="s">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="11">
-        <f>C19-C35</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" ht="85.5">
-      <c r="B52" s="17" t="s">
+      <c r="C35" s="11">
+        <f>C20-C34</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="B40" s="17"/>
+    </row>
+    <row r="51" spans="2:2" ht="85.5">
+      <c r="B51" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="17"/>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="17"/>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="17"/>
+    <row r="52" spans="2:2">
+      <c r="B52" s="17"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="17"/>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Historial de abonos y cambios Sistema Joyeria Violeta.xlsx
+++ b/Documents/Historial de abonos y cambios Sistema Joyeria Violeta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\VioletaSystem\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9A8F33-1DCE-441B-B718-CBDC78319D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15241415-0140-40B3-BF74-C98434C7CDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Concepto</t>
   </si>
@@ -563,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD15"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -879,46 +879,57 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="9"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="4"/>
+      <c r="A33" s="9">
+        <v>45556</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="4">
+        <v>5000</v>
+      </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6" t="s">
+      <c r="A34" s="9"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="8">
-        <f>SUM(C21:C33)</f>
-        <v>76800</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10" t="s">
+      <c r="C35" s="8">
+        <f>SUM(C21:C34)</f>
+        <v>81800</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="11">
-        <f>C20-C34</f>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="B40" s="17"/>
-    </row>
-    <row r="51" spans="2:2" ht="85.5">
-      <c r="B51" s="17" t="s">
+      <c r="C36" s="11">
+        <f>C20-C35</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="B41" s="17"/>
+    </row>
+    <row r="52" spans="2:2" ht="85.5">
+      <c r="B52" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="17"/>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="17"/>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="17"/>
+    <row r="53" spans="2:2">
+      <c r="B53" s="17"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="17"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Historial de abonos y cambios Sistema Joyeria Violeta.xlsx
+++ b/Documents/Historial de abonos y cambios Sistema Joyeria Violeta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\VioletaSystem\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15241415-0140-40B3-BF74-C98434C7CDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F66439-DDC4-4952-8E27-50D832701E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -565,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1">
+    <row r="2" spans="1:3">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -596,7 +596,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="42.75" hidden="1">
+    <row r="3" spans="1:3" ht="42.75">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
         <v>3</v>
@@ -605,7 +605,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="57" hidden="1">
+    <row r="4" spans="1:3" ht="57">
       <c r="A4" s="3"/>
       <c r="B4" s="5" t="s">
         <v>11</v>
@@ -614,7 +614,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.5" hidden="1">
+    <row r="5" spans="1:3" ht="28.5">
       <c r="A5" s="3"/>
       <c r="B5" s="5" t="s">
         <v>12</v>
@@ -623,7 +623,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.5" hidden="1">
+    <row r="6" spans="1:3" ht="28.5">
       <c r="A6" s="3"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -632,7 +632,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="57" hidden="1">
+    <row r="7" spans="1:3" ht="57">
       <c r="A7" s="3"/>
       <c r="B7" s="5" t="s">
         <v>14</v>
@@ -641,7 +641,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="128.25" hidden="1">
+    <row r="8" spans="1:3" ht="128.25">
       <c r="A8" s="3"/>
       <c r="B8" s="5" t="s">
         <v>15</v>
@@ -650,7 +650,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="42.75" hidden="1">
+    <row r="9" spans="1:3" ht="42.75">
       <c r="A9" s="3"/>
       <c r="B9" s="5" t="s">
         <v>16</v>
@@ -659,7 +659,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="42.75" hidden="1">
+    <row r="10" spans="1:3" ht="42.75">
       <c r="A10" s="3"/>
       <c r="B10" s="5" t="s">
         <v>17</v>
@@ -668,7 +668,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="57" hidden="1">
+    <row r="11" spans="1:3" ht="57">
       <c r="A11" s="3"/>
       <c r="B11" s="5" t="s">
         <v>18</v>
@@ -677,7 +677,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1">
+    <row r="12" spans="1:3">
       <c r="A12" s="3"/>
       <c r="B12" s="5" t="s">
         <v>20</v>
@@ -686,7 +686,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="42.75" hidden="1">
+    <row r="13" spans="1:3" ht="42.75">
       <c r="A13" s="3"/>
       <c r="B13" s="5" t="s">
         <v>22</v>
@@ -695,7 +695,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="42.75" hidden="1">
+    <row r="14" spans="1:3" ht="42.75">
       <c r="A14" s="3"/>
       <c r="B14" s="5" t="s">
         <v>23</v>
@@ -704,7 +704,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="42.75" hidden="1">
+    <row r="15" spans="1:3" ht="42.75">
       <c r="A15" s="3"/>
       <c r="B15" s="5" t="s">
         <v>24</v>
